--- a/Model Summary/GEN-NMR_parameters.xlsx
+++ b/Model Summary/GEN-NMR_parameters.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,16 +466,6 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>firing_degree_min</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>firing_degree_max</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
           <t>firing_degree</t>
         </is>
       </c>
@@ -486,36 +476,30 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[[0.06710199]
- [0.06515447]]</t>
+          <t>[[0.05311143]
+ [0.1302186 ]]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[[0.05409483]
- [0.04243172]]</t>
+          <t>[[0.0849606 ]
+ [0.09574303]]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-1.881220932267736</v>
+        <v>-16.4835215262267</v>
       </c>
       <c r="E2" t="n">
-        <v>0.11826135160783</v>
+        <v>3.252131102432681</v>
       </c>
       <c r="F2" t="n">
-        <v>481</v>
+        <v>29</v>
       </c>
       <c r="G2" t="n">
-        <v>1e-10</v>
+        <v>0.002097373084493301</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>5.136614371504963e-11</v>
+        <v>8.531067180595293e-06</v>
       </c>
     </row>
     <row r="3">
@@ -524,36 +508,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[[0.00818561]
- [0.07716372]]</t>
+          <t>[[0.08228968]
+ [0.15556817]]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[[0.00282439]
- [0.00116096]]</t>
+          <t>[[0.01763293]
+ [0.07905498]]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-1.744231067234019</v>
+        <v>-15.26825983559251</v>
       </c>
       <c r="E3" t="n">
-        <v>1.456892904244407e-12</v>
+        <v>0.5728157217851149</v>
       </c>
       <c r="F3" t="n">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="G3" t="n">
         <v>1e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5.136614371504963e-11</v>
+        <v>4.067501029582579e-13</v>
       </c>
     </row>
     <row r="4">
@@ -562,36 +540,30 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[[0.12675577]
- [0.11475162]]</t>
+          <t>[[0.13467593]
+ [0.19719347]]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[[0.06745537]
- [0.04347095]]</t>
+          <t>[[0.01996375]
+ [0.09478911]]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-1.520772661683927</v>
+        <v>-13.17499095679213</v>
       </c>
       <c r="E4" t="n">
-        <v>0.06700342427989117</v>
+        <v>0.5934112218553106</v>
       </c>
       <c r="F4" t="n">
-        <v>320</v>
+        <v>202</v>
       </c>
       <c r="G4" t="n">
         <v>1e-10</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.136614371504963e-11</v>
+        <v>4.067501029582579e-13</v>
       </c>
     </row>
     <row r="5">
@@ -600,492 +572,510 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[[0.31510799]
- [0.11459743]]</t>
+          <t>[[0.18632657]
+ [0.24335731]]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[[0.00293387]
- [0.00810159]]</t>
+          <t>[[0.02015919]
+ [0.09195827]]</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-1.27585139874665</v>
+        <v>-11.07896038543913</v>
       </c>
       <c r="E5" t="n">
-        <v>6.987740846062964e-11</v>
+        <v>0.6101912906905872</v>
       </c>
       <c r="F5" t="n">
-        <v>160</v>
+        <v>314</v>
       </c>
       <c r="G5" t="n">
         <v>1e-10</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5.136614371504963e-11</v>
+        <v>4.067501029582579e-13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[[0.2825898 ]
- [0.23213612]]</t>
+          <t>[[0.24124181]
+ [0.28499409]]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[[0.13132196]
- [0.02656703]]</t>
+          <t>[[0.01698617]
+ [0.06268645]]</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-0.9949907366982362</v>
+        <v>-8.891469242795642</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05865443909605533</v>
+        <v>0.5796707419312355</v>
       </c>
       <c r="F6" t="n">
-        <v>320</v>
+        <v>767</v>
       </c>
       <c r="G6" t="n">
-        <v>1e-10</v>
+        <v>1.048508680493986e-10</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5.136614371504963e-11</v>
+        <v>4.26481013743556e-13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[[0.49904451]
- [0.3155738 ]]</t>
+          <t>[[0.28659431]
+ [0.32016954]]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[[2.39885642e-10]
- [1.89304026e-14]]</t>
+          <t>[[0.01852733]
+ [0.06793296]]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.625693901255196</v>
+        <v>-7.081710794256293</v>
       </c>
       <c r="E7" t="n">
-        <v>3.538155094876884e-10</v>
+        <v>0.6193674930279515</v>
       </c>
       <c r="F7" t="n">
-        <v>160</v>
+        <v>585</v>
       </c>
       <c r="G7" t="n">
-        <v>1e-10</v>
+        <v>0.01721672941677837</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>5.136614371504963e-11</v>
+        <v>7.002906462879071e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[[0.27849144]
- [0.3754092 ]]</t>
+          <t>[[0.34163201]
+ [0.36370714]]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[[1.63307493e-13]
- [1.91157158e-14]]</t>
+          <t>[[0.01898801]
+ [0.07252254]]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-0.5633962678295219</v>
+        <v>-4.881486813462899</v>
       </c>
       <c r="E8" t="n">
-        <v>3.231802688685139e-13</v>
+        <v>0.609263568790357</v>
       </c>
       <c r="F8" t="n">
-        <v>160</v>
+        <v>419</v>
       </c>
       <c r="G8" t="n">
-        <v>1e-10</v>
+        <v>123.572293815723</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>5.136614371504963e-11</v>
+        <v>0.5026304323233344</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[[0.56760803]
- [0.43720948]]</t>
+          <t>[[0.39534978]
+ [0.4024417 ]]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[[5.52146802e-10]
- [1.72564697e-14]]</t>
+          <t>[[0.01805944]
+ [0.06282955]]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-0.3579656268807822</v>
+        <v>-2.755037955733696</v>
       </c>
       <c r="E9" t="n">
-        <v>7.565595572598128e-10</v>
+        <v>0.6192359051777768</v>
       </c>
       <c r="F9" t="n">
-        <v>160</v>
+        <v>457</v>
       </c>
       <c r="G9" t="n">
-        <v>1e-10</v>
+        <v>122.246803365469</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>5.136614371504963e-11</v>
+        <v>0.4972389985522241</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[[0.64914585]
- [0.56279052]]</t>
+          <t>[[0.44815451]
+ [0.44038909]]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[[2.25221479e-09]
- [2.07893131e-14]]</t>
+          <t>[[0.01800461]
+ [0.06362721]]</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>-0.1417276251374026</v>
+        <v>-0.6676644234046379</v>
       </c>
       <c r="E10" t="n">
-        <v>1.741379515893232e-09</v>
+        <v>0.6181938485618268</v>
       </c>
       <c r="F10" t="n">
-        <v>160</v>
+        <v>380</v>
       </c>
       <c r="G10" t="n">
-        <v>1e-10</v>
+        <v>0.01278647172802157</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>5.136614371504963e-11</v>
+        <v>5.200898691845625e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[[0.43390772]
- [0.5       ]]</t>
+          <t>[[0.50108669]
+ [0.47953589]]</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[[1.02469799e-13]
- [2.14612184e-14]]</t>
+          <t>[[0.01742155]
+ [0.06115823]]</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>-0.01134167932368101</v>
+        <v>1.432822925176326</v>
       </c>
       <c r="E11" t="n">
-        <v>2.034838172796729e-13</v>
+        <v>0.6034796269726226</v>
       </c>
       <c r="F11" t="n">
-        <v>160</v>
+        <v>420</v>
       </c>
       <c r="G11" t="n">
         <v>1e-10</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>5.136614371504963e-11</v>
+        <v>4.067501029582579e-13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[[0.75476878]
- [0.6844262 ]]</t>
+          <t>[[0.5509719 ]
+ [0.51549336]]</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[[1.37188707e-08]
- [1.83269174e-14]]</t>
+          <t>[[0.01756002]
+ [0.06402713]]</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.1154291393990051</v>
+        <v>3.410448595297656</v>
       </c>
       <c r="E12" t="n">
-        <v>7.103112223433352e-09</v>
+        <v>0.5928423466914202</v>
       </c>
       <c r="F12" t="n">
-        <v>160</v>
+        <v>483</v>
       </c>
       <c r="G12" t="n">
         <v>1e-10</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>5.136614371504963e-11</v>
+        <v>4.067501029582579e-13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[[0.73316493]
- [0.70979852]]</t>
+          <t>[[0.6044436 ]
+ [0.55615225]]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[[0.12402062]
- [0.08507449]]</t>
+          <t>[[0.01883843]
+ [0.0781522 ]]</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.4638618896240326</v>
+        <v>5.537533146667895</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01538776614693114</v>
+        <v>0.5940084649370668</v>
       </c>
       <c r="F13" t="n">
-        <v>319</v>
+        <v>403</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9335270566613846</v>
+        <v>1e-10</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.4795168495435596</v>
+        <v>4.067501029582579e-13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[[0.76451656]
- [0.74135309]]</t>
+          <t>[[0.65830094]
+ [0.59596906]]</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[[6.21639407e-05]
- [1.71437422e-14]]</t>
+          <t>[[0.01951538]
+ [0.0855098 ]]</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.6846381418916005</v>
+        <v>7.676381887746297</v>
       </c>
       <c r="E14" t="n">
-        <v>7.242289101595754e-06</v>
+        <v>0.5954232679831231</v>
       </c>
       <c r="F14" t="n">
-        <v>160</v>
+        <v>430</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9968798776756954</v>
+        <v>1e-10</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5120587506333086</v>
+        <v>4.067501029582579e-13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[[0.89397639]
- [0.84848425]]</t>
+          <t>[[0.70769694]
+ [0.63583678]]</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[[0.04442457]
- [0.04184754]]</t>
+          <t>[[0.02064962]
+ [0.09232268]]</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.8248579908097504</v>
+        <v>9.657462472382125</v>
       </c>
       <c r="E15" t="n">
-        <v>0.05522834358636707</v>
+        <v>0.609040853874799</v>
       </c>
       <c r="F15" t="n">
-        <v>320</v>
+        <v>370</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01431488715983537</v>
+        <v>1e-10</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.007353005511168221</v>
+        <v>4.067501029582579e-13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>[[0.93133565]
- [0.91373724]]</t>
+          <t>[[0.76175856]
+ [0.68229385]]</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[[0.05450117]
- [0.04898473]]</t>
+          <t>[[0.02044505]
+ [0.0946705 ]]</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.036362059557734</v>
+        <v>11.83951558400279</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01678480077926309</v>
+        <v>0.6073942367341977</v>
       </c>
       <c r="F16" t="n">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="G16" t="n">
-        <v>0.002045372405358071</v>
+        <v>1e-10</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.001050628929244194</v>
+        <v>4.067501029582579e-13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[[0.81319885]
+ [0.72189815]]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[[0.019916  ]
+ [0.09153467]]</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>13.88997841744493</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6130269432859651</v>
+      </c>
+      <c r="F17" t="n">
+        <v>201</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1e-10</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4.067501029582579e-13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>[[0.86076786]
+ [0.76188949]]</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[[0.02046493]
+ [0.1051492 ]]</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>15.82239359589182</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.5717476200783435</v>
+      </c>
+      <c r="F18" t="n">
+        <v>76</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1e-10</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.067501029582579e-13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>[[0.91426752]
+ [0.81395877]]</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[[0.02075632]
+ [0.10772341]]</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>18.00502137574836</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.5757820999538996</v>
+      </c>
+      <c r="F19" t="n">
+        <v>26</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1e-10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4.067501029582579e-13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[[0.95623974]
- [0.9510335 ]]</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>[[0.04262506]
- [0.04842207]]</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>1.190073834667648</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.02260778574284032</v>
-      </c>
-      <c r="F17" t="n">
-        <v>480</v>
-      </c>
-      <c r="G17" t="n">
-        <v>4.04251053126694e-05</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2.076481769186592e-05</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>[[0.97319834]
+ [0.85717933]]</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[[0.02503088]
+ [0.12337471]]</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>20.33915870442998</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8074960443910881</v>
+      </c>
+      <c r="F20" t="n">
+        <v>8</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1e-10</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4.067501029582579e-13</v>
       </c>
     </row>
   </sheetData>
